--- a/src/test/resources/com/resources/TestCases.xlsx
+++ b/src/test/resources/com/resources/TestCases.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Web" sheetId="2" r:id="rId1"/>
+    <sheet name="Mobile" sheetId="3" r:id="rId2"/>
+    <sheet name="WebServices" sheetId="4" r:id="rId3"/>
+    <sheet name="Load" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>Runmode</t>
   </si>
@@ -68,6 +71,15 @@
   </si>
   <si>
     <t>rightUserNameBlankPasswordLoginTest</t>
+  </si>
+  <si>
+    <t>MobileLoginTest</t>
+  </si>
+  <si>
+    <t>SOALoginTest</t>
+  </si>
+  <si>
+    <t>LoadLoginTest</t>
   </si>
 </sst>
 </file>
@@ -510,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,4 +648,190 @@
     <oddFooter>&amp;CInternal</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;CInternal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;CInternal</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;CInternal</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resources/com/resources/TestCases.xlsx
+++ b/src/test/resources/com/resources/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Web" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Runmode</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>LoadLoginTest</t>
+  </si>
+  <si>
+    <t>blankUserNameRightPasswordLoginTest</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,17 +636,43 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;CInternal</oddFooter>
   </headerFooter>
@@ -654,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/com/resources/TestCases.xlsx
+++ b/src/test/resources/com/resources/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Web" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>Runmode</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>LoadLoginTest</t>
-  </si>
-  <si>
-    <t>blankUserNameRightPasswordLoginTest</t>
   </si>
 </sst>
 </file>
@@ -523,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,43 +633,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="A16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;CInternal</oddFooter>
   </headerFooter>
@@ -683,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/com/resources/TestCases.xlsx
+++ b/src/test/resources/com/resources/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Web" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Runmode</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>LoadLoginTest</t>
+  </si>
+  <si>
+    <t>blankUserNameBlankPasswordLoginTest</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,11 +636,34 @@
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
@@ -654,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
